--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_beg.xlsx
@@ -39,7 +39,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">라이타니엔의 도시 월루몽드에 도착한 로도스 아일랜드의 오퍼레이터 '폴리닉'과 '스즈란'은 현지 헌병대장 '세버린'과 만나게 되지만, 세버린은 아무래도 로도스 아일랜드 일행에 무언가 숨기는 게 있는 것 같았다. 한창 대화를 나누던 그때, 마을에 있는 감염자들이 반란을 일으켰다는 소식이 전해들려오게 되는데……
+    <t xml:space="preserve">라이타니아의 도시 월루몽드에 도착한 로도스 아일랜드의 오퍼레이터 '폴리닉'과 '스즈란'은 현지 헌병대장 '세버린'과 만나게 되지만, 세버린은 아무래도 로도스 아일랜드 일행에 무언가 숨기는 게 있는 것 같았다. 한창 대화를 나누던 그때, 마을에 있는 감염자들이 반란을 일으켰다는 소식이 전해들려오게 되는데……
 </t>
   </si>
 </sst>

--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_beg.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_beg.xlsx
@@ -39,7 +39,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">라이타니아의 도시 월루몽드에 도착한 로도스 아일랜드의 오퍼레이터 '폴리닉'과 '스즈란'은 현지 헌병대장 '세버린'과 만나게 되지만, 세버린은 아무래도 로도스 아일랜드 일행에 무언가 숨기는 게 있는 것 같았다. 한창 대화를 나누던 그때, 마을에 있는 감염자들이 반란을 일으켰다는 소식이 전해들려오게 되는데……
+    <t xml:space="preserve">라이타니엔의 도시 월루몽드에 도착한 로도스 아일랜드의 오퍼레이터 '폴리닉'과 '스즈란'은 현지 헌병대장 '세버린'과 만나게 되지만, 세버린은 아무래도 로도스 아일랜드 일행에 무언가 숨기는 게 있는 것 같았다. 한창 대화를 나누던 그때, 마을에 있는 감염자들이 반란을 일으켰다는 소식이 전해들려오게 되는데……
 </t>
   </si>
 </sst>
